--- a/Schematic To Do.xlsx
+++ b/Schematic To Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{949A8F9B-0934-41E3-8E6F-2B2D920677D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE3227EE-12B4-4FB3-B02B-0B4F58BFCC69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{70B9A291-AFE2-4CDC-9166-9864742E8141}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Status</t>
   </si>
@@ -87,13 +84,109 @@
     <t>Figure out GPS connecctions</t>
   </si>
   <si>
-    <t>Delete unsed TPs, move test points to solder pads, not headers</t>
-  </si>
-  <si>
     <t>Pick new terminal blocks</t>
   </si>
   <si>
     <t>Verify that charge pump is a good idea</t>
+  </si>
+  <si>
+    <t>Remove USB ID from power USB port</t>
+  </si>
+  <si>
+    <t>Redo the passives/diodes on the screen supply</t>
+  </si>
+  <si>
+    <t>Change the pin lengths of some devices</t>
+  </si>
+  <si>
+    <t>Split schematic in 2-4 pages</t>
+  </si>
+  <si>
+    <t>Change the schematic symbol for devices so gnd is on the bottom</t>
+  </si>
+  <si>
+    <t>Add description: USB Peripheral Port</t>
+  </si>
+  <si>
+    <t>Delete test point nets, replace with TP symbols</t>
+  </si>
+  <si>
+    <t>Delete all but 2 LEDs and BTNs</t>
+  </si>
+  <si>
+    <t>Make anode and cathode power flag, label with 24V</t>
+  </si>
+  <si>
+    <t>Addition/Modification To Schematic Sheet</t>
+  </si>
+  <si>
+    <t>Annotate part numbers</t>
+  </si>
+  <si>
+    <t>Make unique buffer symbol</t>
+  </si>
+  <si>
+    <t>Replace JPs on Rotary encoder with 0ohm resistors symbol</t>
+  </si>
+  <si>
+    <t>Change LEDs layout so eliminate unecessary height</t>
+  </si>
+  <si>
+    <t>Fix 'J' location on terminal block</t>
+  </si>
+  <si>
+    <t>Either add value ferrite to ADC or remove it</t>
+  </si>
+  <si>
+    <t>Double check that the PIC32 ADCs are fine without filtering on the buck converter</t>
+  </si>
+  <si>
+    <t>Label Decoupling caps with title</t>
+  </si>
+  <si>
+    <t>Move SRAM to the left</t>
+  </si>
+  <si>
+    <t>Look for other unique symbols that can be made</t>
+  </si>
+  <si>
+    <t>Move TFT LCD symbol up</t>
+  </si>
+  <si>
+    <t>Check that the device address of the Touch Driver, Accel,Temp, and GPS are compatible</t>
+  </si>
+  <si>
+    <t>Get consistent with how pins are labeled, accel has text labels</t>
+  </si>
+  <si>
+    <t>Check that all section labels (with bar) are the same size</t>
+  </si>
+  <si>
+    <t>Check that buffers' OE pins should be tied low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label unused adc pins as DNP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider changing the 2.2kohm resistors on ADC buffer lines to something else </t>
+  </si>
+  <si>
+    <t>Put a dotted box around the AGND ADC area, consider moving star ground point over</t>
+  </si>
+  <si>
+    <t>^Noted above, redesign ADC symbol so that it can be divided by dotted box</t>
+  </si>
+  <si>
+    <t>Check 10k pullup on screen supply, should mabye be 4.7k</t>
+  </si>
+  <si>
+    <t>Move all identifiers to top and part numbers to bottom</t>
+  </si>
+  <si>
+    <t>Pick actual parts for resistors, capacitors, diodes (for R  and C, look at 3v3 converter DS)</t>
+  </si>
+  <si>
+    <t>Move pickkit down by USB and terminal block</t>
   </si>
 </sst>
 </file>
@@ -145,12 +238,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,207 +556,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FF85EC-9943-47C2-93F0-09FCBDCCE958}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -690,6 +1018,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
